--- a/xlsx/哈萨克斯坦_intext.xlsx
+++ b/xlsx/哈萨克斯坦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1435">
   <si>
     <t>哈萨克斯坦</t>
   </si>
@@ -29,7 +29,7 @@
     <t>哈萨克斯坦国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_哈萨克斯坦</t>
+    <t>体育运动_体育运动_伊朗_哈萨克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9B%BD%E5%BE%BD</t>
@@ -3026,10 +3026,34 @@
     <t>摩纳哥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -3146,10 +3170,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -3182,10 +3206,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -3272,18 +3296,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -3308,6 +3332,12 @@
     <t>安道尔</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -3366,6 +3396,12 @@
   </si>
   <si>
     <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -4632,7 +4668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5208,7 +5244,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -5701,7 +5737,7 @@
         <v>72</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -6687,7 +6723,7 @@
         <v>138</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -6774,7 +6810,7 @@
         <v>144</v>
       </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -8021,7 +8057,7 @@
         <v>228</v>
       </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -19592,7 +19628,7 @@
         <v>968</v>
       </c>
       <c r="G516" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -20114,7 +20150,7 @@
         <v>1004</v>
       </c>
       <c r="G534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -20143,7 +20179,7 @@
         <v>1006</v>
       </c>
       <c r="G535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -20172,7 +20208,7 @@
         <v>1008</v>
       </c>
       <c r="G536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -20201,7 +20237,7 @@
         <v>1010</v>
       </c>
       <c r="G537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -20230,7 +20266,7 @@
         <v>1012</v>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H538" t="s">
         <v>4</v>
@@ -20317,7 +20353,7 @@
         <v>1018</v>
       </c>
       <c r="G541" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -20346,7 +20382,7 @@
         <v>1020</v>
       </c>
       <c r="G542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H542" t="s">
         <v>4</v>
@@ -20404,7 +20440,7 @@
         <v>1024</v>
       </c>
       <c r="G544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H544" t="s">
         <v>4</v>
@@ -20433,7 +20469,7 @@
         <v>1026</v>
       </c>
       <c r="G545" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -20520,7 +20556,7 @@
         <v>1032</v>
       </c>
       <c r="G548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -20636,7 +20672,7 @@
         <v>1040</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20665,7 +20701,7 @@
         <v>1042</v>
       </c>
       <c r="G553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -20694,7 +20730,7 @@
         <v>1044</v>
       </c>
       <c r="G554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H554" t="s">
         <v>4</v>
@@ -20781,7 +20817,7 @@
         <v>1050</v>
       </c>
       <c r="G557" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H557" t="s">
         <v>4</v>
@@ -20804,13 +20840,13 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1051</v>
+        <v>199</v>
       </c>
       <c r="F558" t="s">
-        <v>1052</v>
+        <v>200</v>
       </c>
       <c r="G558" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H558" t="s">
         <v>4</v>
@@ -20833,13 +20869,13 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F559" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G559" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H559" t="s">
         <v>4</v>
@@ -20862,13 +20898,13 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F560" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H560" t="s">
         <v>4</v>
@@ -20891,10 +20927,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F561" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20920,13 +20956,13 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F562" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H562" t="s">
         <v>4</v>
@@ -20949,13 +20985,13 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F563" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G563" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H563" t="s">
         <v>4</v>
@@ -20978,10 +21014,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F564" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G564" t="n">
         <v>3</v>
@@ -21007,10 +21043,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F565" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -21036,10 +21072,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F566" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -21065,10 +21101,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F567" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -21094,13 +21130,13 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F568" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H568" t="s">
         <v>4</v>
@@ -21123,13 +21159,13 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F569" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G569" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H569" t="s">
         <v>4</v>
@@ -21152,10 +21188,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F570" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -21181,13 +21217,13 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F571" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H571" t="s">
         <v>4</v>
@@ -21210,10 +21246,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F572" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -21239,13 +21275,13 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F573" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G573" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -21268,13 +21304,13 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F574" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H574" t="s">
         <v>4</v>
@@ -21297,10 +21333,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F575" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -21326,13 +21362,13 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F576" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -21355,13 +21391,13 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F577" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H577" t="s">
         <v>4</v>
@@ -21384,10 +21420,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F578" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -21413,13 +21449,13 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F579" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -21442,13 +21478,13 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F580" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H580" t="s">
         <v>4</v>
@@ -21471,10 +21507,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F581" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21500,13 +21536,13 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F582" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H582" t="s">
         <v>4</v>
@@ -21529,10 +21565,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F583" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -21558,13 +21594,13 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F584" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H584" t="s">
         <v>4</v>
@@ -21587,13 +21623,13 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F585" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -21616,10 +21652,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F586" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21645,13 +21681,13 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F587" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -21674,10 +21710,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F588" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21703,13 +21739,13 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F589" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H589" t="s">
         <v>4</v>
@@ -21732,10 +21768,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F590" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21761,13 +21797,13 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F591" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G591" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H591" t="s">
         <v>4</v>
@@ -21790,13 +21826,13 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F592" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G592" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -21819,13 +21855,13 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F593" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H593" t="s">
         <v>4</v>
@@ -21848,13 +21884,13 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>961</v>
+        <v>1121</v>
       </c>
       <c r="F594" t="s">
-        <v>962</v>
+        <v>1122</v>
       </c>
       <c r="G594" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H594" t="s">
         <v>4</v>
@@ -21883,7 +21919,7 @@
         <v>1124</v>
       </c>
       <c r="G595" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H595" t="s">
         <v>4</v>
@@ -21970,7 +22006,7 @@
         <v>1130</v>
       </c>
       <c r="G598" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H598" t="s">
         <v>4</v>
@@ -21999,7 +22035,7 @@
         <v>1132</v>
       </c>
       <c r="G599" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H599" t="s">
         <v>4</v>
@@ -22028,7 +22064,7 @@
         <v>1134</v>
       </c>
       <c r="G600" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H600" t="s">
         <v>4</v>
@@ -22051,13 +22087,13 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1135</v>
+        <v>961</v>
       </c>
       <c r="F601" t="s">
-        <v>1136</v>
+        <v>962</v>
       </c>
       <c r="G601" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -22080,13 +22116,13 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>887</v>
+        <v>1135</v>
       </c>
       <c r="F602" t="s">
-        <v>888</v>
+        <v>1136</v>
       </c>
       <c r="G602" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -22138,10 +22174,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>983</v>
+        <v>1139</v>
       </c>
       <c r="F604" t="s">
-        <v>984</v>
+        <v>1140</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -22167,13 +22203,13 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>931</v>
+        <v>1141</v>
       </c>
       <c r="F605" t="s">
-        <v>932</v>
+        <v>1142</v>
       </c>
       <c r="G605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H605" t="s">
         <v>4</v>
@@ -22196,13 +22232,13 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>963</v>
+        <v>1143</v>
       </c>
       <c r="F606" t="s">
-        <v>964</v>
+        <v>1144</v>
       </c>
       <c r="G606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -22225,13 +22261,13 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="F607" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="G607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H607" t="s">
         <v>4</v>
@@ -22254,13 +22290,13 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="F608" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="G608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -22283,13 +22319,13 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>969</v>
+        <v>887</v>
       </c>
       <c r="F609" t="s">
-        <v>970</v>
+        <v>888</v>
       </c>
       <c r="G609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -22312,13 +22348,13 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="F610" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="G610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -22341,10 +22377,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="F611" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -22370,13 +22406,13 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1145</v>
+        <v>931</v>
       </c>
       <c r="F612" t="s">
-        <v>1146</v>
+        <v>932</v>
       </c>
       <c r="G612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -22399,13 +22435,13 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1147</v>
+        <v>963</v>
       </c>
       <c r="F613" t="s">
-        <v>1148</v>
+        <v>964</v>
       </c>
       <c r="G613" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -22428,13 +22464,13 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F614" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -22457,13 +22493,13 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F615" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -22486,13 +22522,13 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1153</v>
+        <v>969</v>
       </c>
       <c r="F616" t="s">
-        <v>1154</v>
+        <v>970</v>
       </c>
       <c r="G616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -22521,7 +22557,7 @@
         <v>1156</v>
       </c>
       <c r="G617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -22544,13 +22580,13 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1157</v>
+        <v>975</v>
       </c>
       <c r="F618" t="s">
-        <v>1158</v>
+        <v>976</v>
       </c>
       <c r="G618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -22573,10 +22609,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F619" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22602,10 +22638,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F620" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22631,13 +22667,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F621" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -22660,10 +22696,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F622" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22689,13 +22725,13 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F623" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G623" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H623" t="s">
         <v>4</v>
@@ -22718,10 +22754,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F624" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22747,10 +22783,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F625" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22776,10 +22812,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F626" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22805,10 +22841,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F627" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22834,13 +22870,13 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>983</v>
+        <v>1175</v>
       </c>
       <c r="F628" t="s">
-        <v>984</v>
+        <v>1176</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -22956,7 +22992,7 @@
         <v>1184</v>
       </c>
       <c r="G632" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -22979,10 +23015,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1097</v>
+        <v>1185</v>
       </c>
       <c r="F633" t="s">
-        <v>1098</v>
+        <v>1186</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -23008,10 +23044,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F634" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -23037,13 +23073,13 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1187</v>
+        <v>983</v>
       </c>
       <c r="F635" t="s">
-        <v>1188</v>
+        <v>984</v>
       </c>
       <c r="G635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -23066,10 +23102,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1103</v>
+        <v>1189</v>
       </c>
       <c r="F636" t="s">
-        <v>1104</v>
+        <v>1190</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -23095,13 +23131,13 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F637" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -23124,10 +23160,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F638" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -23153,10 +23189,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F639" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -23182,10 +23218,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1195</v>
+        <v>1107</v>
       </c>
       <c r="F640" t="s">
-        <v>1196</v>
+        <v>1108</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -23246,7 +23282,7 @@
         <v>1200</v>
       </c>
       <c r="G642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -23269,10 +23305,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1201</v>
+        <v>1113</v>
       </c>
       <c r="F643" t="s">
-        <v>1202</v>
+        <v>1114</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -23298,10 +23334,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F644" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G644" t="n">
         <v>2</v>
@@ -23327,13 +23363,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F645" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23356,13 +23392,13 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F646" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G646" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -23385,10 +23421,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F647" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23414,10 +23450,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F648" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23443,10 +23479,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F649" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23472,10 +23508,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F650" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23501,10 +23537,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F651" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G651" t="n">
         <v>2</v>
@@ -23530,13 +23566,13 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F652" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -23559,10 +23595,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F653" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23588,10 +23624,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F654" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23617,10 +23653,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F655" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23646,10 +23682,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F656" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23675,13 +23711,13 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F657" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="G657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H657" t="s">
         <v>4</v>
@@ -23704,13 +23740,13 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F658" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -23733,13 +23769,13 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F659" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H659" t="s">
         <v>4</v>
@@ -23762,13 +23798,13 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F660" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -23791,10 +23827,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F661" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23820,10 +23856,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F662" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23849,13 +23885,13 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F663" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -23878,13 +23914,13 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F664" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -23907,13 +23943,13 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F665" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H665" t="s">
         <v>4</v>
@@ -23936,13 +23972,13 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F666" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H666" t="s">
         <v>4</v>
@@ -23965,10 +24001,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F667" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G667" t="n">
         <v>2</v>
@@ -23994,13 +24030,13 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F668" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -24023,10 +24059,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F669" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -24052,13 +24088,13 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F670" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -24081,10 +24117,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F671" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -24110,13 +24146,13 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F672" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -24139,10 +24175,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F673" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -24168,13 +24204,13 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F674" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H674" t="s">
         <v>4</v>
@@ -24197,13 +24233,13 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F675" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H675" t="s">
         <v>4</v>
@@ -24226,13 +24262,13 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F676" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -24255,13 +24291,13 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F677" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -24284,10 +24320,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F678" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -24313,10 +24349,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F679" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -24342,10 +24378,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F680" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -24371,13 +24407,13 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F681" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G681" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -24400,13 +24436,13 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F682" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -24429,10 +24465,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F683" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G683" t="n">
         <v>2</v>
@@ -24458,10 +24494,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F684" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G684" t="n">
         <v>2</v>
@@ -24487,10 +24523,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F685" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24516,10 +24552,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F686" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24545,10 +24581,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F687" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24574,13 +24610,13 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F688" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -24603,13 +24639,13 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F689" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -24632,10 +24668,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F690" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G690" t="n">
         <v>2</v>
@@ -24661,13 +24697,13 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F691" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -24690,10 +24726,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F692" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24719,13 +24755,13 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F693" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H693" t="s">
         <v>4</v>
@@ -24748,13 +24784,13 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F694" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -24777,10 +24813,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F695" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -24806,13 +24842,13 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F696" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -24835,10 +24871,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F697" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G697" t="n">
         <v>2</v>
@@ -24864,10 +24900,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F698" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -24893,10 +24929,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F699" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -24922,10 +24958,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F700" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G700" t="n">
         <v>2</v>
@@ -24951,10 +24987,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F701" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G701" t="n">
         <v>2</v>
@@ -24980,10 +25016,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F702" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -25009,13 +25045,13 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F703" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H703" t="s">
         <v>4</v>
@@ -25038,13 +25074,13 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F704" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H704" t="s">
         <v>4</v>
@@ -25067,10 +25103,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F705" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -25096,10 +25132,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F706" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -25125,13 +25161,13 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F707" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -25154,13 +25190,13 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F708" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -25183,10 +25219,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F709" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -25212,13 +25248,13 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F710" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -25241,10 +25277,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F711" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -25270,13 +25306,13 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F712" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -25299,13 +25335,13 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F713" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -25328,10 +25364,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F714" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -25357,13 +25393,13 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F715" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G715" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -25386,13 +25422,13 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F716" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H716" t="s">
         <v>4</v>
@@ -25415,13 +25451,13 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F717" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -25444,10 +25480,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>949</v>
+        <v>1349</v>
       </c>
       <c r="F718" t="s">
-        <v>950</v>
+        <v>1350</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25566,7 +25602,7 @@
         <v>1358</v>
       </c>
       <c r="G722" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -25595,7 +25631,7 @@
         <v>1360</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -25618,13 +25654,13 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>923</v>
+        <v>1361</v>
       </c>
       <c r="F724" t="s">
-        <v>924</v>
+        <v>1362</v>
       </c>
       <c r="G724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
@@ -25647,10 +25683,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1361</v>
+        <v>949</v>
       </c>
       <c r="F725" t="s">
-        <v>1362</v>
+        <v>950</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25682,7 +25718,7 @@
         <v>1364</v>
       </c>
       <c r="G726" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H726" t="s">
         <v>4</v>
@@ -25711,7 +25747,7 @@
         <v>1366</v>
       </c>
       <c r="G727" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H727" t="s">
         <v>4</v>
@@ -25769,7 +25805,7 @@
         <v>1370</v>
       </c>
       <c r="G729" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H729" t="s">
         <v>4</v>
@@ -25792,13 +25828,13 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1061</v>
+        <v>1371</v>
       </c>
       <c r="F730" t="s">
-        <v>1062</v>
+        <v>1372</v>
       </c>
       <c r="G730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H730" t="s">
         <v>4</v>
@@ -25821,13 +25857,13 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1371</v>
+        <v>923</v>
       </c>
       <c r="F731" t="s">
-        <v>1372</v>
+        <v>924</v>
       </c>
       <c r="G731" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -25995,13 +26031,13 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1383</v>
+        <v>1069</v>
       </c>
       <c r="F737" t="s">
-        <v>1384</v>
+        <v>1070</v>
       </c>
       <c r="G737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H737" t="s">
         <v>4</v>
@@ -26024,10 +26060,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F738" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -26053,13 +26089,13 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>347</v>
+        <v>1385</v>
       </c>
       <c r="F739" t="s">
-        <v>348</v>
+        <v>1386</v>
       </c>
       <c r="G739" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H739" t="s">
         <v>4</v>
@@ -26256,13 +26292,13 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F746" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G746" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H746" t="s">
         <v>4</v>
@@ -26314,10 +26350,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>935</v>
+        <v>1401</v>
       </c>
       <c r="F748" t="s">
-        <v>936</v>
+        <v>1402</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -26343,10 +26379,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="F749" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -26372,10 +26408,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>963</v>
+        <v>1405</v>
       </c>
       <c r="F750" t="s">
-        <v>964</v>
+        <v>1406</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26401,10 +26437,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="F751" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26430,10 +26466,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="F752" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -26459,10 +26495,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1407</v>
+        <v>341</v>
       </c>
       <c r="F753" t="s">
-        <v>1408</v>
+        <v>342</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -26488,10 +26524,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1385</v>
+        <v>1411</v>
       </c>
       <c r="F754" t="s">
-        <v>1386</v>
+        <v>1412</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -26517,10 +26553,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1383</v>
+        <v>935</v>
       </c>
       <c r="F755" t="s">
-        <v>1384</v>
+        <v>936</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -26546,13 +26582,13 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="F756" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="G756" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -26575,10 +26611,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1411</v>
+        <v>963</v>
       </c>
       <c r="F757" t="s">
-        <v>1412</v>
+        <v>964</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -26604,10 +26640,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="F758" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -26633,10 +26669,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F759" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -26662,10 +26698,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F760" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -26691,10 +26727,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="F761" t="s">
-        <v>1420</v>
+        <v>1398</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -26720,18 +26756,221 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1</v>
+      </c>
+      <c r="H762" t="s">
+        <v>4</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1</v>
+      </c>
+      <c r="D763" t="n">
+        <v>762</v>
+      </c>
+      <c r="E763" t="s">
         <v>1421</v>
       </c>
-      <c r="F762" t="s">
+      <c r="F763" t="s">
         <v>1422</v>
       </c>
-      <c r="G762" t="n">
-        <v>1</v>
-      </c>
-      <c r="H762" t="s">
-        <v>4</v>
-      </c>
-      <c r="I762" t="n">
+      <c r="G763" t="n">
+        <v>3</v>
+      </c>
+      <c r="H763" t="s">
+        <v>4</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>0</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1</v>
+      </c>
+      <c r="D764" t="n">
+        <v>763</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G764" t="n">
+        <v>1</v>
+      </c>
+      <c r="H764" t="s">
+        <v>4</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="s">
+        <v>0</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1</v>
+      </c>
+      <c r="D765" t="n">
+        <v>764</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G765" t="n">
+        <v>1</v>
+      </c>
+      <c r="H765" t="s">
+        <v>4</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1</v>
+      </c>
+      <c r="D766" t="n">
+        <v>765</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1</v>
+      </c>
+      <c r="H766" t="s">
+        <v>4</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1</v>
+      </c>
+      <c r="D767" t="n">
+        <v>766</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G767" t="n">
+        <v>1</v>
+      </c>
+      <c r="H767" t="s">
+        <v>4</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="s">
+        <v>0</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1</v>
+      </c>
+      <c r="D768" t="n">
+        <v>767</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1</v>
+      </c>
+      <c r="H768" t="s">
+        <v>4</v>
+      </c>
+      <c r="I768" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="s">
+        <v>0</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1</v>
+      </c>
+      <c r="D769" t="n">
+        <v>768</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G769" t="n">
+        <v>1</v>
+      </c>
+      <c r="H769" t="s">
+        <v>4</v>
+      </c>
+      <c r="I769" t="n">
         <v>3</v>
       </c>
     </row>
